--- a/KG-DLI6-NET-CORE/output/ascoeff.xlsx
+++ b/KG-DLI6-NET-CORE/output/ascoeff.xlsx
@@ -379,8 +379,8 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="4.210625" style="0" customWidth="1"/>
-    <x:col min="2" max="3" width="18.210625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="4.139196" style="0" customWidth="1"/>
+    <x:col min="2" max="3" width="18.424911" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:3">
